--- a/Book2_3.XLSX
+++ b/Book2_3.XLSX
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_UftTest\UftTests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sources\UFT\https___github.com_radislavB_UftTests.git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
     <t>c</t>
   </si>
   <si>
-    <t>e</t>
+    <t>ERR</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
